--- a/dataanalysis/data/predictions/1000/08130955_0957.xlsx
+++ b/dataanalysis/data/predictions/1000/08130955_0957.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="154">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-13</t>
   </si>
   <si>
@@ -473,12 +476,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -836,13 +833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,19 +942,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300066</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.14</v>
@@ -975,7 +975,7 @@
         <v>20750.18</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1016,8 +1016,23 @@
       <c r="W2">
         <v>-0.45</v>
       </c>
+      <c r="X2">
+        <v>-4.48</v>
+      </c>
+      <c r="Y2">
+        <v>6.88</v>
+      </c>
+      <c r="Z2">
+        <v>-0.58</v>
+      </c>
       <c r="AC2" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1025,22 +1040,25 @@
       <c r="AG2">
         <v>3.102455377578735</v>
       </c>
-      <c r="AH2" t="s">
-        <v>153</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300158</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.87</v>
@@ -1058,7 +1076,7 @@
         <v>47326.37</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>16</v>
@@ -1099,8 +1117,23 @@
       <c r="W3">
         <v>-0.25</v>
       </c>
+      <c r="X3">
+        <v>-3.86</v>
+      </c>
+      <c r="Y3">
+        <v>9.1</v>
+      </c>
+      <c r="Z3">
+        <v>8.199999999999999</v>
+      </c>
       <c r="AC3" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1108,22 +1141,25 @@
       <c r="AG3">
         <v>1.595474481582642</v>
       </c>
-      <c r="AH3" t="s">
-        <v>153</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300218</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.67</v>
@@ -1141,7 +1177,7 @@
         <v>10759.99</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1182,8 +1218,23 @@
       <c r="W4">
         <v>-0.17</v>
       </c>
+      <c r="X4">
+        <v>-3.54</v>
+      </c>
+      <c r="Y4">
+        <v>23.01</v>
+      </c>
+      <c r="Z4">
+        <v>-0.04</v>
+      </c>
       <c r="AC4" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1191,22 +1242,25 @@
       <c r="AG4">
         <v>11.45651340484619</v>
       </c>
-      <c r="AH4" t="s">
-        <v>153</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300289</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.5</v>
@@ -1224,7 +1278,7 @@
         <v>62034.24</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1265,8 +1319,23 @@
       <c r="W5">
         <v>0.98</v>
       </c>
+      <c r="X5">
+        <v>-11.21</v>
+      </c>
+      <c r="Y5">
+        <v>10.99</v>
+      </c>
+      <c r="Z5">
+        <v>-0.72</v>
+      </c>
       <c r="AC5" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1274,22 +1343,25 @@
       <c r="AG5">
         <v>5.653666019439697</v>
       </c>
-      <c r="AH5" t="s">
-        <v>153</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300304</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-0.23</v>
@@ -1307,7 +1379,7 @@
         <v>27845.27</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1348,8 +1420,23 @@
       <c r="W6">
         <v>0.01</v>
       </c>
+      <c r="X6">
+        <v>-5.44</v>
+      </c>
+      <c r="Y6">
+        <v>13.46</v>
+      </c>
+      <c r="Z6">
+        <v>4.58</v>
+      </c>
       <c r="AC6" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1357,22 +1444,25 @@
       <c r="AG6">
         <v>6.293292045593262</v>
       </c>
-      <c r="AH6" t="s">
-        <v>153</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300314</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-2.75</v>
@@ -1390,7 +1480,7 @@
         <v>17952.63</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1431,8 +1521,23 @@
       <c r="W7">
         <v>-0.5</v>
       </c>
+      <c r="X7">
+        <v>-3.67</v>
+      </c>
+      <c r="Y7">
+        <v>15.48</v>
+      </c>
+      <c r="Z7">
+        <v>1.71</v>
+      </c>
       <c r="AC7" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1440,22 +1545,25 @@
       <c r="AG7">
         <v>2.655537366867065</v>
       </c>
-      <c r="AH7" t="s">
-        <v>153</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300322</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>4.3</v>
@@ -1473,7 +1581,7 @@
         <v>119542.4</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>13</v>
@@ -1514,8 +1622,23 @@
       <c r="W8">
         <v>0.21</v>
       </c>
+      <c r="X8">
+        <v>-7.67</v>
+      </c>
+      <c r="Y8">
+        <v>29.18</v>
+      </c>
+      <c r="Z8">
+        <v>-0.65</v>
+      </c>
       <c r="AC8" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1523,22 +1646,25 @@
       <c r="AG8">
         <v>2.612698078155518</v>
       </c>
-      <c r="AH8" t="s">
-        <v>153</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300368</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-5.56</v>
@@ -1556,7 +1682,7 @@
         <v>82285.06</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1597,8 +1723,23 @@
       <c r="W9">
         <v>-1.23</v>
       </c>
+      <c r="X9">
+        <v>-11.45</v>
+      </c>
+      <c r="Y9">
+        <v>17</v>
+      </c>
+      <c r="Z9">
+        <v>2.1</v>
+      </c>
       <c r="AC9" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1606,22 +1747,25 @@
       <c r="AG9">
         <v>3.013864755630493</v>
       </c>
-      <c r="AH9" t="s">
-        <v>153</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300398</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.47</v>
@@ -1639,7 +1783,7 @@
         <v>99592.53999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1680,8 +1824,23 @@
       <c r="W10">
         <v>-0.1</v>
       </c>
+      <c r="X10">
+        <v>-2.84</v>
+      </c>
+      <c r="Y10">
+        <v>23.89</v>
+      </c>
+      <c r="Z10">
+        <v>2.53</v>
+      </c>
       <c r="AC10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1689,22 +1848,25 @@
       <c r="AG10">
         <v>34.16997528076172</v>
       </c>
-      <c r="AH10" t="s">
-        <v>153</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300400</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.39</v>
@@ -1722,7 +1884,7 @@
         <v>10596.51</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1763,8 +1925,23 @@
       <c r="W11">
         <v>-0.14</v>
       </c>
+      <c r="X11">
+        <v>4.07</v>
+      </c>
+      <c r="Y11">
+        <v>27</v>
+      </c>
+      <c r="Z11">
+        <v>15.48</v>
+      </c>
       <c r="AC11" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1772,22 +1949,25 @@
       <c r="AG11">
         <v>9.956911087036133</v>
       </c>
-      <c r="AH11" t="s">
-        <v>153</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300436</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-3.1</v>
@@ -1805,7 +1985,7 @@
         <v>55030.27</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>30</v>
@@ -1846,8 +2026,23 @@
       <c r="W12">
         <v>-0.37</v>
       </c>
+      <c r="X12">
+        <v>6.39</v>
+      </c>
+      <c r="Y12">
+        <v>150.2</v>
+      </c>
+      <c r="Z12">
+        <v>14.64</v>
+      </c>
       <c r="AC12" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1855,22 +2050,25 @@
       <c r="AG12">
         <v>-7.522400856018066</v>
       </c>
-      <c r="AH12" t="s">
-        <v>153</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300455</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.92</v>
@@ -1888,7 +2086,7 @@
         <v>58567.66</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -1929,8 +2127,23 @@
       <c r="W13">
         <v>0.27</v>
       </c>
+      <c r="X13">
+        <v>-5.51</v>
+      </c>
+      <c r="Y13">
+        <v>19.5</v>
+      </c>
+      <c r="Z13">
+        <v>-0.71</v>
+      </c>
       <c r="AC13" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1938,22 +2151,25 @@
       <c r="AG13">
         <v>4.639489650726318</v>
       </c>
-      <c r="AH13" t="s">
-        <v>153</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300499</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.06</v>
@@ -1971,7 +2187,7 @@
         <v>47803.91</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2012,8 +2228,23 @@
       <c r="W14">
         <v>0.1</v>
       </c>
+      <c r="X14">
+        <v>-1.03</v>
+      </c>
+      <c r="Y14">
+        <v>25.38</v>
+      </c>
+      <c r="Z14">
+        <v>8.93</v>
+      </c>
       <c r="AC14" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2021,22 +2252,25 @@
       <c r="AG14">
         <v>5.490831851959229</v>
       </c>
-      <c r="AH14" t="s">
-        <v>153</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300584</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-5.4</v>
@@ -2054,7 +2288,7 @@
         <v>28987.69</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2095,8 +2329,23 @@
       <c r="W15">
         <v>0.17</v>
       </c>
+      <c r="X15">
+        <v>6.72</v>
+      </c>
+      <c r="Y15">
+        <v>55.58</v>
+      </c>
+      <c r="Z15">
+        <v>14.53</v>
+      </c>
       <c r="AC15" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2104,22 +2353,25 @@
       <c r="AG15">
         <v>5.772072792053223</v>
       </c>
-      <c r="AH15" t="s">
-        <v>153</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300593</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.65</v>
@@ -2137,7 +2389,7 @@
         <v>13263.51</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2178,8 +2430,23 @@
       <c r="W16">
         <v>-0.01</v>
       </c>
+      <c r="X16">
+        <v>-7.34</v>
+      </c>
+      <c r="Y16">
+        <v>18.87</v>
+      </c>
+      <c r="Z16">
+        <v>1.78</v>
+      </c>
       <c r="AC16" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2187,22 +2454,25 @@
       <c r="AG16">
         <v>5.129880428314209</v>
       </c>
-      <c r="AH16" t="s">
-        <v>153</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300600</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -2220,7 +2490,7 @@
         <v>38813.25</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -2261,8 +2531,23 @@
       <c r="W17">
         <v>0.22</v>
       </c>
+      <c r="X17">
+        <v>0.9</v>
+      </c>
+      <c r="Y17">
+        <v>21.56</v>
+      </c>
+      <c r="Z17">
+        <v>-1.42</v>
+      </c>
       <c r="AC17" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2270,22 +2555,25 @@
       <c r="AG17">
         <v>-1.603436470031738</v>
       </c>
-      <c r="AH17" t="s">
-        <v>153</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300620</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>20.01</v>
@@ -2303,7 +2591,7 @@
         <v>211795.48</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2344,8 +2632,23 @@
       <c r="W18">
         <v>0.74</v>
       </c>
+      <c r="X18">
+        <v>0.95</v>
+      </c>
+      <c r="Y18">
+        <v>86.97</v>
+      </c>
+      <c r="Z18">
+        <v>9.67</v>
+      </c>
       <c r="AC18" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2353,22 +2656,25 @@
       <c r="AG18">
         <v>18.95593452453613</v>
       </c>
-      <c r="AH18" t="s">
-        <v>154</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300637</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>5.33</v>
@@ -2386,7 +2692,7 @@
         <v>61901</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2427,8 +2733,23 @@
       <c r="W19">
         <v>-0.26</v>
       </c>
+      <c r="X19">
+        <v>-5.25</v>
+      </c>
+      <c r="Y19">
+        <v>17.77</v>
+      </c>
+      <c r="Z19">
+        <v>15.24</v>
+      </c>
       <c r="AC19" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2436,22 +2757,25 @@
       <c r="AG19">
         <v>13.47757053375244</v>
       </c>
-      <c r="AH19" t="s">
-        <v>153</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300648</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.11</v>
@@ -2469,7 +2793,7 @@
         <v>18952.81</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -2510,8 +2834,23 @@
       <c r="W20">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X20">
+        <v>2.02</v>
+      </c>
+      <c r="Y20">
+        <v>59.98</v>
+      </c>
+      <c r="Z20">
+        <v>8.880000000000001</v>
+      </c>
       <c r="AC20" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2519,22 +2858,25 @@
       <c r="AG20">
         <v>1.608430147171021</v>
       </c>
-      <c r="AH20" t="s">
-        <v>153</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300671</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.75</v>
@@ -2552,7 +2894,7 @@
         <v>66566.55</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2593,8 +2935,23 @@
       <c r="W21">
         <v>-0.09</v>
       </c>
+      <c r="X21">
+        <v>-5.93</v>
+      </c>
+      <c r="Y21">
+        <v>43.18</v>
+      </c>
+      <c r="Z21">
+        <v>0.19</v>
+      </c>
       <c r="AC21" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2602,22 +2959,25 @@
       <c r="AG21">
         <v>9.926241874694824</v>
       </c>
-      <c r="AH21" t="s">
-        <v>153</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300684</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-0.68</v>
@@ -2635,7 +2995,7 @@
         <v>38715.72</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2676,8 +3036,23 @@
       <c r="W22">
         <v>-0.37</v>
       </c>
+      <c r="X22">
+        <v>-5.01</v>
+      </c>
+      <c r="Y22">
+        <v>33.67</v>
+      </c>
+      <c r="Z22">
+        <v>0.36</v>
+      </c>
       <c r="AC22" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2685,22 +3060,25 @@
       <c r="AG22">
         <v>1.803608894348145</v>
       </c>
-      <c r="AH22" t="s">
-        <v>153</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300689</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-4.08</v>
@@ -2718,7 +3096,7 @@
         <v>19768.43</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2759,8 +3137,23 @@
       <c r="W23">
         <v>-0.17</v>
       </c>
+      <c r="X23">
+        <v>-6.51</v>
+      </c>
+      <c r="Y23">
+        <v>60.66</v>
+      </c>
+      <c r="Z23">
+        <v>-1.19</v>
+      </c>
       <c r="AC23" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2768,22 +3161,25 @@
       <c r="AG23">
         <v>8.305062294006348</v>
       </c>
-      <c r="AH23" t="s">
-        <v>153</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300690</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-0.37</v>
@@ -2801,7 +3197,7 @@
         <v>67561.53999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2842,8 +3238,23 @@
       <c r="W24">
         <v>0.7</v>
       </c>
+      <c r="X24">
+        <v>-7.4</v>
+      </c>
+      <c r="Y24">
+        <v>35.79</v>
+      </c>
+      <c r="Z24">
+        <v>1.53</v>
+      </c>
       <c r="AC24" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2851,22 +3262,25 @@
       <c r="AG24">
         <v>2.895451784133911</v>
       </c>
-      <c r="AH24" t="s">
-        <v>153</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300696</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>4.64</v>
@@ -2884,7 +3298,7 @@
         <v>34233.12</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -2925,8 +3339,23 @@
       <c r="W25">
         <v>0.32</v>
       </c>
+      <c r="X25">
+        <v>-6.57</v>
+      </c>
+      <c r="Y25">
+        <v>31.83</v>
+      </c>
+      <c r="Z25">
+        <v>-1.24</v>
+      </c>
       <c r="AC25" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2934,22 +3363,25 @@
       <c r="AG25">
         <v>4.065103530883789</v>
       </c>
-      <c r="AH25" t="s">
-        <v>153</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300697</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>5.22</v>
@@ -2967,7 +3399,7 @@
         <v>35344.85</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3008,8 +3440,23 @@
       <c r="W26">
         <v>0.68</v>
       </c>
+      <c r="X26">
+        <v>-5.33</v>
+      </c>
+      <c r="Y26">
+        <v>16.69</v>
+      </c>
+      <c r="Z26">
+        <v>4.84</v>
+      </c>
       <c r="AC26" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3017,22 +3464,25 @@
       <c r="AG26">
         <v>6.508597373962402</v>
       </c>
-      <c r="AH26" t="s">
-        <v>153</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300703</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.05</v>
@@ -3050,7 +3500,7 @@
         <v>15539.73</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3091,8 +3541,23 @@
       <c r="W27">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X27">
+        <v>7.01</v>
+      </c>
+      <c r="Y27">
+        <v>37.22</v>
+      </c>
+      <c r="Z27">
+        <v>10.77</v>
+      </c>
       <c r="AC27" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3100,22 +3565,25 @@
       <c r="AG27">
         <v>4.310009956359863</v>
       </c>
-      <c r="AH27" t="s">
-        <v>153</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300706</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.17</v>
@@ -3133,7 +3601,7 @@
         <v>60760.77</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28">
         <v>14</v>
@@ -3174,8 +3642,23 @@
       <c r="W28">
         <v>-0.38</v>
       </c>
+      <c r="X28">
+        <v>-6.95</v>
+      </c>
+      <c r="Y28">
+        <v>49.64</v>
+      </c>
+      <c r="Z28">
+        <v>3.01</v>
+      </c>
       <c r="AC28" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3183,22 +3666,25 @@
       <c r="AG28">
         <v>1.881088376045227</v>
       </c>
-      <c r="AH28" t="s">
-        <v>153</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300731</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.55</v>
@@ -3216,7 +3702,7 @@
         <v>44633.32</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -3257,8 +3743,23 @@
       <c r="W29">
         <v>0.16</v>
       </c>
+      <c r="X29">
+        <v>-7.02</v>
+      </c>
+      <c r="Y29">
+        <v>53.98</v>
+      </c>
+      <c r="Z29">
+        <v>9.800000000000001</v>
+      </c>
       <c r="AC29" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3266,22 +3767,25 @@
       <c r="AG29">
         <v>4.366551399230957</v>
       </c>
-      <c r="AH29" t="s">
-        <v>153</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300780</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.2</v>
@@ -3299,7 +3803,7 @@
         <v>15681.85</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3340,8 +3844,23 @@
       <c r="W30">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X30">
+        <v>-8.07</v>
+      </c>
+      <c r="Y30">
+        <v>20.86</v>
+      </c>
+      <c r="Z30">
+        <v>-1.51</v>
+      </c>
       <c r="AC30" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3349,22 +3868,25 @@
       <c r="AG30">
         <v>7.820947647094727</v>
       </c>
-      <c r="AH30" t="s">
-        <v>153</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300815</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>7.86</v>
@@ -3382,7 +3904,7 @@
         <v>200524.1</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3423,8 +3945,23 @@
       <c r="W31">
         <v>-1.8</v>
       </c>
+      <c r="X31">
+        <v>-11.46</v>
+      </c>
+      <c r="Y31">
+        <v>31.7</v>
+      </c>
+      <c r="Z31">
+        <v>-0.38</v>
+      </c>
       <c r="AC31" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3432,22 +3969,25 @@
       <c r="AG31">
         <v>7.889678955078125</v>
       </c>
-      <c r="AH31" t="s">
-        <v>153</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300873</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-4</v>
@@ -3465,7 +4005,7 @@
         <v>13138.6</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3506,8 +4046,23 @@
       <c r="W32">
         <v>-0.12</v>
       </c>
+      <c r="X32">
+        <v>-4.69</v>
+      </c>
+      <c r="Y32">
+        <v>26.17</v>
+      </c>
+      <c r="Z32">
+        <v>1.04</v>
+      </c>
       <c r="AC32" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3515,22 +4070,25 @@
       <c r="AG32">
         <v>25.39040946960449</v>
       </c>
-      <c r="AH32" t="s">
-        <v>153</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300875</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>5.4</v>
@@ -3548,7 +4106,7 @@
         <v>40493.19</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3589,8 +4147,23 @@
       <c r="W33">
         <v>0.06</v>
       </c>
+      <c r="X33">
+        <v>-9.26</v>
+      </c>
+      <c r="Y33">
+        <v>60.42</v>
+      </c>
+      <c r="Z33">
+        <v>-5.12</v>
+      </c>
       <c r="AC33" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3598,22 +4171,25 @@
       <c r="AG33">
         <v>2.592568159103394</v>
       </c>
-      <c r="AH33" t="s">
-        <v>153</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300885</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.74</v>
@@ -3631,7 +4207,7 @@
         <v>33218.59</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K34">
         <v>16</v>
@@ -3672,8 +4248,23 @@
       <c r="W34">
         <v>-0.24</v>
       </c>
+      <c r="X34">
+        <v>-7.36</v>
+      </c>
+      <c r="Y34">
+        <v>29.06</v>
+      </c>
+      <c r="Z34">
+        <v>-0.14</v>
+      </c>
       <c r="AC34" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3681,22 +4272,25 @@
       <c r="AG34">
         <v>3.382301092147827</v>
       </c>
-      <c r="AH34" t="s">
-        <v>153</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300916</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.11</v>
@@ -3714,7 +4308,7 @@
         <v>7326.24</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K35">
         <v>7</v>
@@ -3755,8 +4349,23 @@
       <c r="W35">
         <v>0.02</v>
       </c>
+      <c r="X35">
+        <v>-2.53</v>
+      </c>
+      <c r="Y35">
+        <v>43.35</v>
+      </c>
+      <c r="Z35">
+        <v>-1.12</v>
+      </c>
       <c r="AC35" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3764,22 +4373,25 @@
       <c r="AG35">
         <v>3.821059226989746</v>
       </c>
-      <c r="AH35" t="s">
-        <v>153</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300943</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-0.53</v>
@@ -3797,7 +4409,7 @@
         <v>9359.280000000001</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3838,8 +4450,23 @@
       <c r="W36">
         <v>-0.3</v>
       </c>
+      <c r="X36">
+        <v>-6.27</v>
+      </c>
+      <c r="Y36">
+        <v>18.69</v>
+      </c>
+      <c r="Z36">
+        <v>-0.48</v>
+      </c>
       <c r="AC36" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3847,22 +4474,25 @@
       <c r="AG36">
         <v>-0.6246254444122314</v>
       </c>
-      <c r="AH36" t="s">
-        <v>153</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300981</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-2.98</v>
@@ -3880,7 +4510,7 @@
         <v>21749.87</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3921,8 +4551,23 @@
       <c r="W37">
         <v>0.11</v>
       </c>
+      <c r="X37">
+        <v>-9.91</v>
+      </c>
+      <c r="Y37">
+        <v>17.38</v>
+      </c>
+      <c r="Z37">
+        <v>2.54</v>
+      </c>
       <c r="AC37" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3930,22 +4575,25 @@
       <c r="AG37">
         <v>6.994453430175781</v>
       </c>
-      <c r="AH37" t="s">
-        <v>153</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300993</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.05</v>
@@ -3963,7 +4611,7 @@
         <v>9899.290000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4004,8 +4652,23 @@
       <c r="W38">
         <v>0.11</v>
       </c>
+      <c r="X38">
+        <v>-3.33</v>
+      </c>
+      <c r="Y38">
+        <v>19.57</v>
+      </c>
+      <c r="Z38">
+        <v>6.36</v>
+      </c>
       <c r="AC38" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4013,22 +4676,25 @@
       <c r="AG38">
         <v>4.408710479736328</v>
       </c>
-      <c r="AH38" t="s">
-        <v>153</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301005</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.31</v>
@@ -4046,7 +4712,7 @@
         <v>35408.55</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -4087,8 +4753,23 @@
       <c r="W39">
         <v>0.12</v>
       </c>
+      <c r="X39">
+        <v>-7.69</v>
+      </c>
+      <c r="Y39">
+        <v>56.89</v>
+      </c>
+      <c r="Z39">
+        <v>5.06</v>
+      </c>
       <c r="AC39" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4096,22 +4777,25 @@
       <c r="AG39">
         <v>5.490779876708984</v>
       </c>
-      <c r="AH39" t="s">
-        <v>153</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301018</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.91</v>
@@ -4129,7 +4813,7 @@
         <v>59634.76</v>
       </c>
       <c r="J40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4170,8 +4854,23 @@
       <c r="W40">
         <v>0.04</v>
       </c>
+      <c r="X40">
+        <v>-4.12</v>
+      </c>
+      <c r="Y40">
+        <v>59.77</v>
+      </c>
+      <c r="Z40">
+        <v>2.68</v>
+      </c>
       <c r="AC40" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4179,22 +4878,25 @@
       <c r="AG40">
         <v>-2.17045259475708</v>
       </c>
-      <c r="AH40" t="s">
-        <v>153</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301022</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.2</v>
@@ -4212,7 +4914,7 @@
         <v>13837.6</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4253,8 +4955,23 @@
       <c r="W41">
         <v>0.45</v>
       </c>
+      <c r="X41">
+        <v>-10.73</v>
+      </c>
+      <c r="Y41">
+        <v>46.66</v>
+      </c>
+      <c r="Z41">
+        <v>-3.61</v>
+      </c>
       <c r="AC41" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4262,22 +4979,25 @@
       <c r="AG41">
         <v>25.28524208068848</v>
       </c>
-      <c r="AH41" t="s">
-        <v>153</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301038</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.48</v>
@@ -4295,7 +5015,7 @@
         <v>28443.83</v>
       </c>
       <c r="J42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K42">
         <v>12</v>
@@ -4336,8 +5056,23 @@
       <c r="W42">
         <v>-0.2</v>
       </c>
+      <c r="X42">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>40</v>
+      </c>
+      <c r="Z42">
+        <v>13.31</v>
+      </c>
       <c r="AC42" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4345,22 +5080,25 @@
       <c r="AG42">
         <v>3.954717397689819</v>
       </c>
-      <c r="AH42" t="s">
-        <v>153</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301048</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-4.28</v>
@@ -4378,7 +5116,7 @@
         <v>21303.17</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4419,8 +5157,23 @@
       <c r="W43">
         <v>-0.26</v>
       </c>
+      <c r="X43">
+        <v>-7.75</v>
+      </c>
+      <c r="Y43">
+        <v>13.98</v>
+      </c>
+      <c r="Z43">
+        <v>-0.71</v>
+      </c>
       <c r="AC43" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4428,22 +5181,25 @@
       <c r="AG43">
         <v>-3.542872667312622</v>
       </c>
-      <c r="AH43" t="s">
-        <v>153</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301069</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>1.32</v>
@@ -4461,7 +5217,7 @@
         <v>25945.15</v>
       </c>
       <c r="J44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K44">
         <v>6</v>
@@ -4502,8 +5258,23 @@
       <c r="W44">
         <v>0.01</v>
       </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>22.97</v>
+      </c>
+      <c r="Z44">
+        <v>2.96</v>
+      </c>
       <c r="AC44" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4511,22 +5282,25 @@
       <c r="AG44">
         <v>0.6795229315757751</v>
       </c>
-      <c r="AH44" t="s">
-        <v>153</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301076</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.29</v>
@@ -4544,7 +5318,7 @@
         <v>79289.33</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4585,8 +5359,23 @@
       <c r="W45">
         <v>-0.9</v>
       </c>
+      <c r="X45">
+        <v>5.24</v>
+      </c>
+      <c r="Y45">
+        <v>55.2</v>
+      </c>
+      <c r="Z45">
+        <v>11.97</v>
+      </c>
       <c r="AC45" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4594,22 +5383,25 @@
       <c r="AG45">
         <v>-5.586780071258545</v>
       </c>
-      <c r="AH45" t="s">
-        <v>153</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301095</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.01</v>
@@ -4627,7 +5419,7 @@
         <v>70972.58</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <v>11</v>
@@ -4668,8 +5460,23 @@
       <c r="W46">
         <v>0.28</v>
       </c>
+      <c r="X46">
+        <v>-3.72</v>
+      </c>
+      <c r="Y46">
+        <v>89.5</v>
+      </c>
+      <c r="Z46">
+        <v>9.130000000000001</v>
+      </c>
       <c r="AC46" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4677,22 +5484,25 @@
       <c r="AG46">
         <v>1.062712788581848</v>
       </c>
-      <c r="AH46" t="s">
-        <v>153</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301112</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.22</v>
@@ -4710,7 +5520,7 @@
         <v>10288.42</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4751,8 +5561,23 @@
       <c r="W47">
         <v>-0.21</v>
       </c>
+      <c r="X47">
+        <v>-3.81</v>
+      </c>
+      <c r="Y47">
+        <v>47.46</v>
+      </c>
+      <c r="Z47">
+        <v>-2.04</v>
+      </c>
       <c r="AC47" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4760,22 +5585,25 @@
       <c r="AG47">
         <v>2.232416868209839</v>
       </c>
-      <c r="AH47" t="s">
-        <v>153</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301117</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>6.34</v>
@@ -4793,7 +5621,7 @@
         <v>71249.63</v>
       </c>
       <c r="J48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4834,8 +5662,23 @@
       <c r="W48">
         <v>-0.23</v>
       </c>
+      <c r="X48">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>44.44</v>
+      </c>
+      <c r="Z48">
+        <v>2.73</v>
+      </c>
       <c r="AC48" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4843,22 +5686,25 @@
       <c r="AG48">
         <v>-12.12133026123047</v>
       </c>
-      <c r="AH48" t="s">
-        <v>153</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301120</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>4.81</v>
@@ -4876,7 +5722,7 @@
         <v>41700.18</v>
       </c>
       <c r="J49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K49">
         <v>7</v>
@@ -4917,8 +5763,23 @@
       <c r="W49">
         <v>1.15</v>
       </c>
+      <c r="X49">
+        <v>-0.74</v>
+      </c>
+      <c r="Y49">
+        <v>15.4</v>
+      </c>
+      <c r="Z49">
+        <v>-0.39</v>
+      </c>
       <c r="AC49" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4926,22 +5787,25 @@
       <c r="AG49">
         <v>3.248573064804077</v>
       </c>
-      <c r="AH49" t="s">
-        <v>153</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301123</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-3.83</v>
@@ -4959,7 +5823,7 @@
         <v>15128.29</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5000,8 +5864,23 @@
       <c r="W50">
         <v>-0.34</v>
       </c>
+      <c r="X50">
+        <v>3.56</v>
+      </c>
+      <c r="Y50">
+        <v>35.67</v>
+      </c>
+      <c r="Z50">
+        <v>11.12</v>
+      </c>
       <c r="AC50" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5009,22 +5888,25 @@
       <c r="AG50">
         <v>-0.4399692714214325</v>
       </c>
-      <c r="AH50" t="s">
-        <v>153</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301128</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0.08</v>
@@ -5042,7 +5924,7 @@
         <v>16964.19</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5083,8 +5965,23 @@
       <c r="W51">
         <v>-0.05</v>
       </c>
+      <c r="X51">
+        <v>-4.35</v>
+      </c>
+      <c r="Y51">
+        <v>69.66</v>
+      </c>
+      <c r="Z51">
+        <v>4.53</v>
+      </c>
       <c r="AC51" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5092,22 +5989,25 @@
       <c r="AG51">
         <v>4.45319938659668</v>
       </c>
-      <c r="AH51" t="s">
-        <v>153</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301161</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.05</v>
@@ -5125,7 +6025,7 @@
         <v>10319.79</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5166,8 +6066,23 @@
       <c r="W52">
         <v>-0.09</v>
       </c>
+      <c r="X52">
+        <v>-7.91</v>
+      </c>
+      <c r="Y52">
+        <v>40.84</v>
+      </c>
+      <c r="Z52">
+        <v>6.19</v>
+      </c>
       <c r="AC52" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5175,22 +6090,25 @@
       <c r="AG52">
         <v>6.573598861694336</v>
       </c>
-      <c r="AH52" t="s">
-        <v>153</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301200</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>0.18</v>
@@ -5208,7 +6126,7 @@
         <v>24456.92</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K53">
         <v>15</v>
@@ -5249,8 +6167,23 @@
       <c r="W53">
         <v>0.55</v>
       </c>
+      <c r="X53">
+        <v>-12.15</v>
+      </c>
+      <c r="Y53">
+        <v>101.89</v>
+      </c>
+      <c r="Z53">
+        <v>6.17</v>
+      </c>
       <c r="AC53" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5258,22 +6191,25 @@
       <c r="AG53">
         <v>1.289955973625183</v>
       </c>
-      <c r="AH53" t="s">
-        <v>153</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301217</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>3.53</v>
@@ -5291,7 +6227,7 @@
         <v>68948.66</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K54">
         <v>28</v>
@@ -5332,8 +6268,23 @@
       <c r="W54">
         <v>0.23</v>
       </c>
+      <c r="X54">
+        <v>-6.15</v>
+      </c>
+      <c r="Y54">
+        <v>29.97</v>
+      </c>
+      <c r="Z54">
+        <v>16.12</v>
+      </c>
       <c r="AC54" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5341,22 +6292,25 @@
       <c r="AG54">
         <v>7.716004848480225</v>
       </c>
-      <c r="AH54" t="s">
-        <v>153</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301232</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-3.49</v>
@@ -5374,7 +6328,7 @@
         <v>15161.84</v>
       </c>
       <c r="J55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5415,8 +6369,23 @@
       <c r="W55">
         <v>-0.09</v>
       </c>
+      <c r="X55">
+        <v>-8.84</v>
+      </c>
+      <c r="Y55">
+        <v>40.99</v>
+      </c>
+      <c r="Z55">
+        <v>-1.21</v>
+      </c>
       <c r="AC55" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5424,22 +6393,25 @@
       <c r="AG55">
         <v>3.250673532485962</v>
       </c>
-      <c r="AH55" t="s">
-        <v>153</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301251</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>5.84</v>
@@ -5457,7 +6429,7 @@
         <v>61683.44</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -5498,8 +6470,23 @@
       <c r="W56">
         <v>-0.06</v>
       </c>
+      <c r="X56">
+        <v>-5.75</v>
+      </c>
+      <c r="Y56">
+        <v>62</v>
+      </c>
+      <c r="Z56">
+        <v>1.84</v>
+      </c>
       <c r="AC56" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5507,22 +6494,25 @@
       <c r="AG56">
         <v>2.856077194213867</v>
       </c>
-      <c r="AH56" t="s">
-        <v>153</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301285</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>0.6899999999999999</v>
@@ -5540,7 +6530,7 @@
         <v>7357.35</v>
       </c>
       <c r="J57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5581,8 +6571,23 @@
       <c r="W57">
         <v>0.17</v>
       </c>
+      <c r="X57">
+        <v>-5.94</v>
+      </c>
+      <c r="Y57">
+        <v>51.5</v>
+      </c>
+      <c r="Z57">
+        <v>0.33</v>
+      </c>
       <c r="AC57" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5590,22 +6595,25 @@
       <c r="AG57">
         <v>3.358015060424805</v>
       </c>
-      <c r="AH57" t="s">
-        <v>153</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301323</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.37</v>
@@ -5623,7 +6631,7 @@
         <v>14178.47</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5664,8 +6672,23 @@
       <c r="W58">
         <v>-0.14</v>
       </c>
+      <c r="X58">
+        <v>-1.82</v>
+      </c>
+      <c r="Y58">
+        <v>58.45</v>
+      </c>
+      <c r="Z58">
+        <v>4</v>
+      </c>
       <c r="AC58" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5673,22 +6696,25 @@
       <c r="AG58">
         <v>5.7211594581604</v>
       </c>
-      <c r="AH58" t="s">
-        <v>153</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301357</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>6.74</v>
@@ -5706,7 +6732,7 @@
         <v>72327.27</v>
       </c>
       <c r="J59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5747,8 +6773,23 @@
       <c r="W59">
         <v>-0.04</v>
       </c>
+      <c r="X59">
+        <v>-8.65</v>
+      </c>
+      <c r="Y59">
+        <v>162.77</v>
+      </c>
+      <c r="Z59">
+        <v>-1.34</v>
+      </c>
       <c r="AC59" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5756,22 +6797,25 @@
       <c r="AG59">
         <v>2.95847749710083</v>
       </c>
-      <c r="AH59" t="s">
-        <v>153</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301389</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.8100000000000001</v>
@@ -5789,7 +6833,7 @@
         <v>18005.08</v>
       </c>
       <c r="J60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K60">
         <v>27</v>
@@ -5830,8 +6874,23 @@
       <c r="W60">
         <v>-0.01</v>
       </c>
+      <c r="X60">
+        <v>-10.6</v>
+      </c>
+      <c r="Y60">
+        <v>54.28</v>
+      </c>
+      <c r="Z60">
+        <v>8.65</v>
+      </c>
       <c r="AC60" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5839,22 +6898,25 @@
       <c r="AG60">
         <v>1.745854616165161</v>
       </c>
-      <c r="AH60" t="s">
-        <v>153</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301397</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>1.5</v>
@@ -5872,7 +6934,7 @@
         <v>29677.78</v>
       </c>
       <c r="J61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -5913,8 +6975,23 @@
       <c r="W61">
         <v>0.06</v>
       </c>
+      <c r="X61">
+        <v>-4.33</v>
+      </c>
+      <c r="Y61">
+        <v>42.24</v>
+      </c>
+      <c r="Z61">
+        <v>7.84</v>
+      </c>
       <c r="AC61" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5922,22 +6999,25 @@
       <c r="AG61">
         <v>2.769712209701538</v>
       </c>
-      <c r="AH61" t="s">
-        <v>153</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301486</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.48</v>
@@ -5955,7 +7035,7 @@
         <v>62667.26</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -5996,8 +7076,23 @@
       <c r="W62">
         <v>-0.5</v>
       </c>
+      <c r="X62">
+        <v>-7.35</v>
+      </c>
+      <c r="Y62">
+        <v>93</v>
+      </c>
+      <c r="Z62">
+        <v>1.61</v>
+      </c>
       <c r="AC62" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6005,22 +7100,25 @@
       <c r="AG62">
         <v>-10.04616451263428</v>
       </c>
-      <c r="AH62" t="s">
-        <v>153</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301489</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.62</v>
@@ -6038,7 +7136,7 @@
         <v>35102.45</v>
       </c>
       <c r="J63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -6079,8 +7177,23 @@
       <c r="W63">
         <v>-0.16</v>
       </c>
+      <c r="X63">
+        <v>-2.38</v>
+      </c>
+      <c r="Y63">
+        <v>158</v>
+      </c>
+      <c r="Z63">
+        <v>3.33</v>
+      </c>
       <c r="AC63" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6088,22 +7201,25 @@
       <c r="AG63">
         <v>2.046313285827637</v>
       </c>
-      <c r="AH63" t="s">
-        <v>153</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301511</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.18</v>
@@ -6121,7 +7237,7 @@
         <v>100306.41</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K64">
         <v>37</v>
@@ -6162,8 +7278,23 @@
       <c r="W64">
         <v>-0.23</v>
       </c>
+      <c r="X64">
+        <v>-11.27</v>
+      </c>
+      <c r="Y64">
+        <v>40.97</v>
+      </c>
+      <c r="Z64">
+        <v>11.88</v>
+      </c>
       <c r="AC64" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6171,22 +7302,25 @@
       <c r="AG64">
         <v>-0.1966139525175095</v>
       </c>
-      <c r="AH64" t="s">
-        <v>153</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688108</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>5.46</v>
@@ -6204,7 +7338,7 @@
         <v>124020.4</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6245,8 +7379,23 @@
       <c r="W65">
         <v>-0.16</v>
       </c>
+      <c r="X65">
+        <v>3.05</v>
+      </c>
+      <c r="Y65">
+        <v>30.94</v>
+      </c>
+      <c r="Z65">
+        <v>16.84</v>
+      </c>
       <c r="AC65" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6254,22 +7403,25 @@
       <c r="AG65">
         <v>4.671958923339844</v>
       </c>
-      <c r="AH65" t="s">
-        <v>153</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688110</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2.78</v>
@@ -6287,7 +7439,7 @@
         <v>130920.91</v>
       </c>
       <c r="J66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K66">
         <v>12</v>
@@ -6328,8 +7480,23 @@
       <c r="W66">
         <v>-0.06</v>
       </c>
+      <c r="X66">
+        <v>4.58</v>
+      </c>
+      <c r="Y66">
+        <v>95.98</v>
+      </c>
+      <c r="Z66">
+        <v>7.61</v>
+      </c>
       <c r="AC66" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6337,22 +7504,25 @@
       <c r="AG66">
         <v>35.18824005126953</v>
       </c>
-      <c r="AH66" t="s">
-        <v>153</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688146</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>20.01</v>
@@ -6370,7 +7540,7 @@
         <v>98042.66</v>
       </c>
       <c r="J67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6411,8 +7581,23 @@
       <c r="W67">
         <v>1.48</v>
       </c>
+      <c r="X67">
+        <v>-9.43</v>
+      </c>
+      <c r="Y67">
+        <v>46.62</v>
+      </c>
+      <c r="Z67">
+        <v>3.92</v>
+      </c>
       <c r="AC67" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6420,22 +7605,25 @@
       <c r="AG67">
         <v>11.68644428253174</v>
       </c>
-      <c r="AH67" t="s">
-        <v>154</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688167</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-1.8</v>
@@ -6453,7 +7641,7 @@
         <v>16658.81</v>
       </c>
       <c r="J68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -6494,8 +7682,23 @@
       <c r="W68">
         <v>-0.01</v>
       </c>
+      <c r="X68">
+        <v>-3.33</v>
+      </c>
+      <c r="Y68">
+        <v>101.83</v>
+      </c>
+      <c r="Z68">
+        <v>-0.29</v>
+      </c>
       <c r="AC68" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6503,22 +7706,25 @@
       <c r="AG68">
         <v>2.12650465965271</v>
       </c>
-      <c r="AH68" t="s">
-        <v>153</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688199</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-1.1</v>
@@ -6536,7 +7742,7 @@
         <v>18685.38</v>
       </c>
       <c r="J69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6577,8 +7783,23 @@
       <c r="W69">
         <v>0.04</v>
       </c>
+      <c r="X69">
+        <v>-4.67</v>
+      </c>
+      <c r="Y69">
+        <v>27.08</v>
+      </c>
+      <c r="Z69">
+        <v>0.33</v>
+      </c>
       <c r="AC69" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6586,22 +7807,25 @@
       <c r="AG69">
         <v>1.200109958648682</v>
       </c>
-      <c r="AH69" t="s">
-        <v>153</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688270</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>14.78</v>
@@ -6619,7 +7843,7 @@
         <v>103990.68</v>
       </c>
       <c r="J70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6660,8 +7884,23 @@
       <c r="W70">
         <v>-0.06</v>
       </c>
+      <c r="X70">
+        <v>-4.39</v>
+      </c>
+      <c r="Y70">
+        <v>68.3</v>
+      </c>
+      <c r="Z70">
+        <v>0.43</v>
+      </c>
       <c r="AC70" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6669,22 +7908,25 @@
       <c r="AG70">
         <v>5.666225910186768</v>
       </c>
-      <c r="AH70" t="s">
-        <v>153</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688273</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-7.46</v>
@@ -6702,7 +7944,7 @@
         <v>26537.34</v>
       </c>
       <c r="J71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6743,8 +7985,23 @@
       <c r="W71">
         <v>-0.82</v>
       </c>
+      <c r="X71">
+        <v>1.06</v>
+      </c>
+      <c r="Y71">
+        <v>53.69</v>
+      </c>
+      <c r="Z71">
+        <v>9.82</v>
+      </c>
       <c r="AC71" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6752,22 +8009,25 @@
       <c r="AG71">
         <v>-3.911725759506226</v>
       </c>
-      <c r="AH71" t="s">
-        <v>153</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688313</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>4.82</v>
@@ -6785,7 +8045,7 @@
         <v>86471.17</v>
       </c>
       <c r="J72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6826,8 +8086,23 @@
       <c r="W72">
         <v>0.32</v>
       </c>
+      <c r="X72">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>60.65</v>
+      </c>
+      <c r="Z72">
+        <v>-2.07</v>
+      </c>
       <c r="AC72" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6835,22 +8110,25 @@
       <c r="AG72">
         <v>-6.338308334350586</v>
       </c>
-      <c r="AH72" t="s">
-        <v>153</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688551</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-2.64</v>
@@ -6868,7 +8146,7 @@
         <v>7701.27</v>
       </c>
       <c r="J73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -6909,8 +8187,23 @@
       <c r="W73">
         <v>-0.05</v>
       </c>
+      <c r="X73">
+        <v>-7.68</v>
+      </c>
+      <c r="Y73">
+        <v>45.66</v>
+      </c>
+      <c r="Z73">
+        <v>4.92</v>
+      </c>
       <c r="AC73" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6918,22 +8211,25 @@
       <c r="AG73">
         <v>4.678050994873047</v>
       </c>
-      <c r="AH73" t="s">
-        <v>153</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688630</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>2.47</v>
@@ -6951,7 +8247,7 @@
         <v>27830.78</v>
       </c>
       <c r="J74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K74">
         <v>15</v>
@@ -6992,8 +8288,23 @@
       <c r="W74">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X74">
+        <v>-8.82</v>
+      </c>
+      <c r="Y74">
+        <v>146</v>
+      </c>
+      <c r="Z74">
+        <v>3.25</v>
+      </c>
       <c r="AC74" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7001,22 +8312,25 @@
       <c r="AG74">
         <v>2.727354288101196</v>
       </c>
-      <c r="AH74" t="s">
-        <v>153</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688800</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>1.14</v>
@@ -7034,7 +8348,7 @@
         <v>34370</v>
       </c>
       <c r="J75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K75">
         <v>7</v>
@@ -7075,8 +8389,23 @@
       <c r="W75">
         <v>0.22</v>
       </c>
+      <c r="X75">
+        <v>-1.1</v>
+      </c>
+      <c r="Y75">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>11.45</v>
+      </c>
       <c r="AC75" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7084,8 +8413,11 @@
       <c r="AG75">
         <v>4.834420680999756</v>
       </c>
-      <c r="AH75" t="s">
-        <v>153</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
